--- a/adjacency.xlsx
+++ b/adjacency.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arianne Ranada\Downloads\csintsy-mco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEADF33-5EA9-4282-8377-998A13721EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB0E83F-8DF9-4D97-9059-C3158D319BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Copy of Sheet1" sheetId="2" r:id="rId1"/>
@@ -32,6 +32,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -39,29 +40,34 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -333,10 +339,10 @@
   <dimension ref="A1:AM1018"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AN35" sqref="AN35"/>
+      <selection pane="bottomRight" activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4495,8 +4501,8 @@
       <c r="AM36" s="7"/>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
-        <v>1</v>
+      <c r="A37" s="2">
+        <v>49</v>
       </c>
       <c r="B37" s="5">
         <v>0</v>
